--- a/Dati/cereal_prices.xlsx
+++ b/Dati/cereal_prices.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73ac18f57000f4fb/Documenti/GitHub/Data-Science-Lab/Dati/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_EE62E3C6D06F9D94251C8748E28EA75A61B5419B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED6685D-0D90-4C98-A8FA-6E06CFD9BC52}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="2652" yWindow="2652" windowWidth="15384" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$875</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -76,12 +85,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd\/MM\/yyyy"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,18 +121,26 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -166,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +214,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,6 +266,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,23 +459,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G875"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -469,7 +521,7 @@
         <v>232.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -492,7 +544,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -515,7 +567,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -538,7 +590,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -561,7 +613,7 @@
         <v>232.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -584,7 +636,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -607,7 +659,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -630,7 +682,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -653,7 +705,7 @@
         <v>232.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -676,7 +728,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -699,7 +751,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -722,7 +774,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -745,7 +797,7 @@
         <v>232.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -768,7 +820,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -791,7 +843,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -814,7 +866,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -837,7 +889,7 @@
         <v>232.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -860,7 +912,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -883,7 +935,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -906,7 +958,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -929,7 +981,7 @@
         <v>232.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -952,7 +1004,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -975,7 +1027,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1050,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1073,7 @@
         <v>229.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1096,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1067,7 +1119,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1090,7 +1142,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1165,7 @@
         <v>229.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1188,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1211,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1234,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1205,7 +1257,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1280,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1251,7 +1303,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1326,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1297,7 +1349,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1372,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1395,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1418,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1441,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1412,7 +1464,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1435,7 +1487,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1458,7 +1510,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1533,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1556,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1579,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1602,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1625,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +1648,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1671,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1694,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1717,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +1740,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1711,7 +1763,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1786,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1809,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1780,7 +1832,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1803,7 +1855,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1878,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1849,7 +1901,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1924,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1947,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +1970,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +1993,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +2016,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1987,7 +2039,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2010,7 +2062,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2033,7 +2085,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2108,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2079,7 +2131,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2102,7 +2154,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2125,7 +2177,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2200,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2223,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2194,7 +2246,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +2269,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2240,7 +2292,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2263,7 +2315,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2338,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2309,7 +2361,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2332,7 +2384,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2355,7 +2407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2378,7 +2430,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2401,7 +2453,7 @@
         <v>224.5</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2424,7 +2476,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2447,7 +2499,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2470,7 +2522,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2493,7 +2545,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2516,7 +2568,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2539,7 +2591,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2562,7 +2614,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2585,7 +2637,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -2608,7 +2660,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -2631,7 +2683,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2654,7 +2706,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2677,7 +2729,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -2700,7 +2752,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -2723,7 +2775,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -2746,7 +2798,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -2769,7 +2821,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -2792,7 +2844,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -2815,7 +2867,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2838,7 +2890,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -2861,7 +2913,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2884,7 +2936,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -2907,7 +2959,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -2930,7 +2982,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2953,7 +3005,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -2976,7 +3028,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2999,7 +3051,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3022,7 +3074,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3045,7 +3097,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3068,7 +3120,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3091,7 +3143,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3114,7 +3166,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3189,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -3160,7 +3212,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3183,7 +3235,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3206,7 +3258,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3229,7 +3281,7 @@
         <v>220.5</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3252,7 +3304,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3275,7 +3327,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3298,7 +3350,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3321,7 +3373,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3344,7 +3396,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3367,7 +3419,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3390,7 +3442,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -3413,7 +3465,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3436,7 +3488,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3459,7 +3511,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3482,7 +3534,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3505,7 +3557,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3528,7 +3580,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -3551,7 +3603,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3574,7 +3626,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3597,7 +3649,7 @@
         <v>216.5</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -3620,7 +3672,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -3643,7 +3695,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -3666,7 +3718,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3689,7 +3741,7 @@
         <v>216.5</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3712,7 +3764,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3735,7 +3787,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -3758,7 +3810,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3781,7 +3833,7 @@
         <v>214.5</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3804,7 +3856,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -3827,7 +3879,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3850,7 +3902,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -3873,7 +3925,7 @@
         <v>214.5</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -3896,7 +3948,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -3919,7 +3971,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -3942,7 +3994,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -3965,7 +4017,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3988,7 +4040,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -4011,7 +4063,7 @@
         <v>211.5</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -4034,7 +4086,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -4057,7 +4109,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -4080,7 +4132,7 @@
         <v>211.5</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -4103,7 +4155,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -4126,7 +4178,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -4149,7 +4201,7 @@
         <v>211.5</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -4172,7 +4224,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -4195,7 +4247,7 @@
         <v>211.5</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -4218,7 +4270,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -4241,7 +4293,7 @@
         <v>211.5</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +4316,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -4287,7 +4339,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -4310,7 +4362,7 @@
         <v>174.5</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -4333,7 +4385,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -4356,7 +4408,7 @@
         <v>175.5</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -4379,7 +4431,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -4402,7 +4454,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -4425,7 +4477,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -4448,7 +4500,7 @@
         <v>178.5</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -4471,7 +4523,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -4494,7 +4546,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -4517,7 +4569,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -4540,7 +4592,7 @@
         <v>180.5</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -4563,7 +4615,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -4586,7 +4638,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -4609,7 +4661,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>15</v>
       </c>
@@ -4632,7 +4684,7 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>15</v>
       </c>
@@ -4655,7 +4707,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>15</v>
       </c>
@@ -4678,7 +4730,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>15</v>
       </c>
@@ -4701,7 +4753,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>15</v>
       </c>
@@ -4724,7 +4776,7 @@
         <v>188.5</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -4747,7 +4799,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>15</v>
       </c>
@@ -4770,7 +4822,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -4793,7 +4845,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -4816,7 +4868,7 @@
         <v>208.5</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -4839,7 +4891,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -4862,7 +4914,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -4885,7 +4937,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -4908,7 +4960,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -4931,7 +4983,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -4954,7 +5006,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -4977,7 +5029,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -5000,7 +5052,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -5023,7 +5075,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -5046,7 +5098,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -5069,7 +5121,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -5092,7 +5144,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>15</v>
       </c>
@@ -5115,7 +5167,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -5138,7 +5190,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -5161,7 +5213,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -5184,7 +5236,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -5207,7 +5259,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -5230,7 +5282,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -5253,7 +5305,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -5276,7 +5328,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -5299,7 +5351,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>15</v>
       </c>
@@ -5322,7 +5374,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -5345,7 +5397,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -5368,7 +5420,7 @@
         <v>210.5</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>15</v>
       </c>
@@ -5391,7 +5443,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>15</v>
       </c>
@@ -5414,7 +5466,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>15</v>
       </c>
@@ -5437,7 +5489,7 @@
         <v>210.5</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -5460,7 +5512,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>15</v>
       </c>
@@ -5483,7 +5535,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>15</v>
       </c>
@@ -5506,7 +5558,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>15</v>
       </c>
@@ -5529,7 +5581,7 @@
         <v>210.5</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -5552,7 +5604,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -5575,7 +5627,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -5598,7 +5650,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>15</v>
       </c>
@@ -5621,7 +5673,7 @@
         <v>210.5</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -5644,7 +5696,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -5667,7 +5719,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -5690,7 +5742,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -5713,7 +5765,7 @@
         <v>210.5</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>15</v>
       </c>
@@ -5736,7 +5788,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -5759,7 +5811,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -5782,7 +5834,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -5805,7 +5857,7 @@
         <v>212.5</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -5828,7 +5880,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -5851,7 +5903,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -5874,7 +5926,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -5897,7 +5949,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -5920,7 +5972,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -5943,7 +5995,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -5966,7 +6018,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -5989,7 +6041,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -6012,7 +6064,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>15</v>
       </c>
@@ -6035,7 +6087,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -6058,7 +6110,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -6081,7 +6133,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>15</v>
       </c>
@@ -6104,7 +6156,7 @@
         <v>219.5</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -6127,7 +6179,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -6150,7 +6202,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>15</v>
       </c>
@@ -6173,7 +6225,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>15</v>
       </c>
@@ -6196,7 +6248,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -6219,7 +6271,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>15</v>
       </c>
@@ -6242,7 +6294,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -6265,7 +6317,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -6288,7 +6340,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -6311,7 +6363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>15</v>
       </c>
@@ -6334,7 +6386,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -6357,7 +6409,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>15</v>
       </c>
@@ -6380,7 +6432,7 @@
         <v>228.5</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>15</v>
       </c>
@@ -6403,7 +6455,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -6426,7 +6478,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -6449,7 +6501,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -6472,7 +6524,7 @@
         <v>231.5</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -6495,7 +6547,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>15</v>
       </c>
@@ -6518,7 +6570,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>15</v>
       </c>
@@ -6541,7 +6593,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>15</v>
       </c>
@@ -6564,7 +6616,7 @@
         <v>231.5</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>15</v>
       </c>
@@ -6587,7 +6639,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -6610,7 +6662,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>15</v>
       </c>
@@ -6633,7 +6685,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -6656,7 +6708,7 @@
         <v>231.5</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>15</v>
       </c>
@@ -6679,7 +6731,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>15</v>
       </c>
@@ -6702,7 +6754,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>15</v>
       </c>
@@ -6725,7 +6777,7 @@
         <v>225.5</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>15</v>
       </c>
@@ -6748,7 +6800,7 @@
         <v>231.5</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>15</v>
       </c>
@@ -6771,7 +6823,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -6794,7 +6846,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>15</v>
       </c>
@@ -6817,7 +6869,7 @@
         <v>225.5</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>15</v>
       </c>
@@ -6840,7 +6892,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>15</v>
       </c>
@@ -6863,7 +6915,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -6886,7 +6938,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>15</v>
       </c>
@@ -6909,7 +6961,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -6932,7 +6984,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -6955,7 +7007,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>15</v>
       </c>
@@ -6978,7 +7030,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>15</v>
       </c>
@@ -7001,7 +7053,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -7024,7 +7076,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>15</v>
       </c>
@@ -7047,7 +7099,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -7070,7 +7122,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -7093,7 +7145,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -7116,7 +7168,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -7139,7 +7191,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -7162,7 +7214,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>15</v>
       </c>
@@ -7185,7 +7237,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -7208,7 +7260,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -7231,7 +7283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -7254,7 +7306,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -7277,7 +7329,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -7300,7 +7352,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -7323,7 +7375,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -7346,7 +7398,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -7369,7 +7421,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -7392,7 +7444,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -7415,7 +7467,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -7438,7 +7490,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>15</v>
       </c>
@@ -7461,7 +7513,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -7484,7 +7536,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -7507,7 +7559,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -7530,7 +7582,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -7553,7 +7605,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -7576,7 +7628,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -7599,7 +7651,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -7622,7 +7674,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>15</v>
       </c>
@@ -7645,7 +7697,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>15</v>
       </c>
@@ -7668,7 +7720,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>15</v>
       </c>
@@ -7691,7 +7743,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>15</v>
       </c>
@@ -7714,7 +7766,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>15</v>
       </c>
@@ -7737,7 +7789,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -7760,7 +7812,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>15</v>
       </c>
@@ -7783,7 +7835,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>15</v>
       </c>
@@ -7806,7 +7858,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>15</v>
       </c>
@@ -7829,7 +7881,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>15</v>
       </c>
@@ -7852,7 +7904,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>15</v>
       </c>
@@ -7875,7 +7927,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -7898,7 +7950,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -7921,7 +7973,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -7944,7 +7996,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -7967,7 +8019,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>15</v>
       </c>
@@ -7990,7 +8042,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>15</v>
       </c>
@@ -8013,7 +8065,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -8036,7 +8088,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -8059,7 +8111,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>15</v>
       </c>
@@ -8082,7 +8134,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -8105,7 +8157,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>15</v>
       </c>
@@ -8128,7 +8180,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>15</v>
       </c>
@@ -8151,7 +8203,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -8174,7 +8226,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -8197,7 +8249,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -8220,7 +8272,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>15</v>
       </c>
@@ -8243,7 +8295,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -8266,7 +8318,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -8289,7 +8341,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>15</v>
       </c>
@@ -8312,7 +8364,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -8335,7 +8387,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -8358,7 +8410,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>16</v>
       </c>
@@ -8381,7 +8433,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>16</v>
       </c>
@@ -8404,7 +8456,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>16</v>
       </c>
@@ -8427,7 +8479,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>16</v>
       </c>
@@ -8450,7 +8502,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>16</v>
       </c>
@@ -8473,7 +8525,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>16</v>
       </c>
@@ -8496,7 +8548,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>16</v>
       </c>
@@ -8519,7 +8571,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>16</v>
       </c>
@@ -8542,7 +8594,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>16</v>
       </c>
@@ -8565,7 +8617,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>16</v>
       </c>
@@ -8588,7 +8640,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>16</v>
       </c>
@@ -8611,7 +8663,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>16</v>
       </c>
@@ -8634,7 +8686,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>16</v>
       </c>
@@ -8657,7 +8709,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>16</v>
       </c>
@@ -8680,7 +8732,7 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>16</v>
       </c>
@@ -8703,7 +8755,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>16</v>
       </c>
@@ -8726,7 +8778,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>16</v>
       </c>
@@ -8749,7 +8801,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>16</v>
       </c>
@@ -8772,7 +8824,7 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>16</v>
       </c>
@@ -8795,7 +8847,7 @@
         <v>224.5</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>16</v>
       </c>
@@ -8818,7 +8870,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>16</v>
       </c>
@@ -8841,7 +8893,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>16</v>
       </c>
@@ -8864,7 +8916,7 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>16</v>
       </c>
@@ -8887,7 +8939,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>16</v>
       </c>
@@ -8910,7 +8962,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>16</v>
       </c>
@@ -8933,7 +8985,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>16</v>
       </c>
@@ -8956,7 +9008,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>16</v>
       </c>
@@ -8979,7 +9031,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>16</v>
       </c>
@@ -9002,7 +9054,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>16</v>
       </c>
@@ -9025,7 +9077,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>16</v>
       </c>
@@ -9048,7 +9100,7 @@
         <v>188.5</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>16</v>
       </c>
@@ -9071,7 +9123,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>16</v>
       </c>
@@ -9094,7 +9146,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>16</v>
       </c>
@@ -9117,7 +9169,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>16</v>
       </c>
@@ -9140,7 +9192,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>16</v>
       </c>
@@ -9163,7 +9215,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>16</v>
       </c>
@@ -9186,7 +9238,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>16</v>
       </c>
@@ -9209,7 +9261,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>16</v>
       </c>
@@ -9232,7 +9284,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>16</v>
       </c>
@@ -9255,7 +9307,7 @@
         <v>229.5</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>16</v>
       </c>
@@ -9278,7 +9330,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>16</v>
       </c>
@@ -9301,7 +9353,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>16</v>
       </c>
@@ -9324,7 +9376,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>16</v>
       </c>
@@ -9347,7 +9399,7 @@
         <v>234.5</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>16</v>
       </c>
@@ -9370,7 +9422,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>16</v>
       </c>
@@ -9393,7 +9445,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>16</v>
       </c>
@@ -9416,7 +9468,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>16</v>
       </c>
@@ -9439,7 +9491,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>16</v>
       </c>
@@ -9462,7 +9514,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>16</v>
       </c>
@@ -9485,7 +9537,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>16</v>
       </c>
@@ -9508,7 +9560,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>16</v>
       </c>
@@ -9531,7 +9583,7 @@
         <v>245.5</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>16</v>
       </c>
@@ -9554,7 +9606,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>16</v>
       </c>
@@ -9577,7 +9629,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>16</v>
       </c>
@@ -9600,7 +9652,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>16</v>
       </c>
@@ -9623,7 +9675,7 @@
         <v>250.5</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>16</v>
       </c>
@@ -9646,7 +9698,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>16</v>
       </c>
@@ -9669,7 +9721,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>16</v>
       </c>
@@ -9692,7 +9744,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>16</v>
       </c>
@@ -9715,7 +9767,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>16</v>
       </c>
@@ -9738,7 +9790,7 @@
         <v>171.5</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>16</v>
       </c>
@@ -9761,7 +9813,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>16</v>
       </c>
@@ -9784,7 +9836,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>16</v>
       </c>
@@ -9807,7 +9859,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>16</v>
       </c>
@@ -9830,7 +9882,7 @@
         <v>171.5</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>16</v>
       </c>
@@ -9853,7 +9905,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>16</v>
       </c>
@@ -9876,7 +9928,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>16</v>
       </c>
@@ -9899,7 +9951,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>16</v>
       </c>
@@ -9922,7 +9974,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>16</v>
       </c>
@@ -9945,7 +9997,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>16</v>
       </c>
@@ -9968,7 +10020,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>16</v>
       </c>
@@ -9991,7 +10043,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>16</v>
       </c>
@@ -10014,7 +10066,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>16</v>
       </c>
@@ -10037,7 +10089,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>16</v>
       </c>
@@ -10060,7 +10112,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>16</v>
       </c>
@@ -10083,7 +10135,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>16</v>
       </c>
@@ -10106,7 +10158,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>16</v>
       </c>
@@ -10129,7 +10181,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>16</v>
       </c>
@@ -10152,7 +10204,7 @@
         <v>191.5</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>16</v>
       </c>
@@ -10175,7 +10227,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>16</v>
       </c>
@@ -10198,7 +10250,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>16</v>
       </c>
@@ -10221,7 +10273,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>16</v>
       </c>
@@ -10244,7 +10296,7 @@
         <v>193.5</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>16</v>
       </c>
@@ -10267,7 +10319,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>16</v>
       </c>
@@ -10290,7 +10342,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>16</v>
       </c>
@@ -10313,7 +10365,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>16</v>
       </c>
@@ -10336,7 +10388,7 @@
         <v>193.5</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>16</v>
       </c>
@@ -10359,7 +10411,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>16</v>
       </c>
@@ -10382,7 +10434,7 @@
         <v>175.5</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>16</v>
       </c>
@@ -10405,7 +10457,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>16</v>
       </c>
@@ -10428,7 +10480,7 @@
         <v>193.5</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>16</v>
       </c>
@@ -10451,7 +10503,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>16</v>
       </c>
@@ -10474,7 +10526,7 @@
         <v>178.5</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>16</v>
       </c>
@@ -10497,7 +10549,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>16</v>
       </c>
@@ -10520,7 +10572,7 @@
         <v>195.5</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>16</v>
       </c>
@@ -10543,7 +10595,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>16</v>
       </c>
@@ -10566,7 +10618,7 @@
         <v>180.5</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>16</v>
       </c>
@@ -10589,7 +10641,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>16</v>
       </c>
@@ -10612,7 +10664,7 @@
         <v>197.5</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>16</v>
       </c>
@@ -10635,7 +10687,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>16</v>
       </c>
@@ -10658,7 +10710,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>16</v>
       </c>
@@ -10681,7 +10733,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>16</v>
       </c>
@@ -10704,7 +10756,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>16</v>
       </c>
@@ -10727,7 +10779,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>16</v>
       </c>
@@ -10750,7 +10802,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>16</v>
       </c>
@@ -10773,7 +10825,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>16</v>
       </c>
@@ -10796,7 +10848,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>16</v>
       </c>
@@ -10819,7 +10871,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>16</v>
       </c>
@@ -10842,7 +10894,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>16</v>
       </c>
@@ -10865,7 +10917,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>16</v>
       </c>
@@ -10888,7 +10940,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>16</v>
       </c>
@@ -10911,7 +10963,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>16</v>
       </c>
@@ -10934,7 +10986,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>16</v>
       </c>
@@ -10957,7 +11009,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>16</v>
       </c>
@@ -10980,7 +11032,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>16</v>
       </c>
@@ -11003,7 +11055,7 @@
         <v>267.5</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>16</v>
       </c>
@@ -11026,7 +11078,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>16</v>
       </c>
@@ -11049,7 +11101,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>16</v>
       </c>
@@ -11072,7 +11124,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>16</v>
       </c>
@@ -11095,7 +11147,7 @@
         <v>267.5</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>16</v>
       </c>
@@ -11118,7 +11170,7 @@
         <v>179.5</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>16</v>
       </c>
@@ -11141,7 +11193,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>16</v>
       </c>
@@ -11164,7 +11216,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>16</v>
       </c>
@@ -11187,7 +11239,7 @@
         <v>267.5</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>16</v>
       </c>
@@ -11210,7 +11262,7 @@
         <v>179.5</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>16</v>
       </c>
@@ -11233,7 +11285,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>16</v>
       </c>
@@ -11256,7 +11308,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>16</v>
       </c>
@@ -11279,7 +11331,7 @@
         <v>267.5</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>16</v>
       </c>
@@ -11302,7 +11354,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>16</v>
       </c>
@@ -11325,7 +11377,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>16</v>
       </c>
@@ -11348,7 +11400,7 @@
         <v>202.5</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>16</v>
       </c>
@@ -11371,7 +11423,7 @@
         <v>271.5</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>16</v>
       </c>
@@ -11394,7 +11446,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>16</v>
       </c>
@@ -11417,7 +11469,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>16</v>
       </c>
@@ -11440,7 +11492,7 @@
         <v>209.5</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>16</v>
       </c>
@@ -11463,7 +11515,7 @@
         <v>278.5</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>16</v>
       </c>
@@ -11486,7 +11538,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>16</v>
       </c>
@@ -11509,7 +11561,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>16</v>
       </c>
@@ -11532,7 +11584,7 @@
         <v>212.5</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>16</v>
       </c>
@@ -11555,7 +11607,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>16</v>
       </c>
@@ -11578,7 +11630,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>16</v>
       </c>
@@ -11601,7 +11653,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>16</v>
       </c>
@@ -11624,7 +11676,7 @@
         <v>212.5</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>16</v>
       </c>
@@ -11647,7 +11699,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>16</v>
       </c>
@@ -11670,7 +11722,7 @@
         <v>179.5</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>16</v>
       </c>
@@ -11693,7 +11745,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>16</v>
       </c>
@@ -11716,7 +11768,7 @@
         <v>210.5</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>16</v>
       </c>
@@ -11739,7 +11791,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>16</v>
       </c>
@@ -11762,7 +11814,7 @@
         <v>177.5</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>16</v>
       </c>
@@ -11785,7 +11837,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>16</v>
       </c>
@@ -11808,7 +11860,7 @@
         <v>209.5</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>16</v>
       </c>
@@ -11831,7 +11883,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>16</v>
       </c>
@@ -11854,7 +11906,7 @@
         <v>175.5</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>16</v>
       </c>
@@ -11877,7 +11929,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>16</v>
       </c>
@@ -11900,7 +11952,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>16</v>
       </c>
@@ -11923,7 +11975,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>16</v>
       </c>
@@ -11946,7 +11998,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>16</v>
       </c>
@@ -11969,7 +12021,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>16</v>
       </c>
@@ -11992,7 +12044,7 @@
         <v>205.5</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>16</v>
       </c>
@@ -12015,7 +12067,7 @@
         <v>277.5</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>16</v>
       </c>
@@ -12038,7 +12090,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>16</v>
       </c>
@@ -12061,7 +12113,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>16</v>
       </c>
@@ -12084,7 +12136,7 @@
         <v>203.5</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>16</v>
       </c>
@@ -12107,7 +12159,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>16</v>
       </c>
@@ -12130,7 +12182,7 @@
         <v>168.5</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>16</v>
       </c>
@@ -12153,7 +12205,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>16</v>
       </c>
@@ -12176,7 +12228,7 @@
         <v>201.5</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>16</v>
       </c>
@@ -12199,7 +12251,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>16</v>
       </c>
@@ -12222,7 +12274,7 @@
         <v>168.5</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>16</v>
       </c>
@@ -12245,7 +12297,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>16</v>
       </c>
@@ -12268,7 +12320,7 @@
         <v>200.5</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>16</v>
       </c>
@@ -12291,7 +12343,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>16</v>
       </c>
@@ -12314,7 +12366,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>16</v>
       </c>
@@ -12337,7 +12389,7 @@
         <v>198.5</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>16</v>
       </c>
@@ -12360,7 +12412,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>16</v>
       </c>
@@ -12383,7 +12435,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>16</v>
       </c>
@@ -12406,7 +12458,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>16</v>
       </c>
@@ -12429,7 +12481,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>16</v>
       </c>
@@ -12452,7 +12504,7 @@
         <v>159.5</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>16</v>
       </c>
@@ -12475,7 +12527,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>17</v>
       </c>
@@ -12498,7 +12550,7 @@
         <v>305.5</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>17</v>
       </c>
@@ -12521,7 +12573,7 @@
         <v>159.5</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>17</v>
       </c>
@@ -12544,7 +12596,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>17</v>
       </c>
@@ -12567,7 +12619,7 @@
         <v>184.5</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>17</v>
       </c>
@@ -12590,7 +12642,7 @@
         <v>297.5</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>17</v>
       </c>
@@ -12613,7 +12665,7 @@
         <v>159.5</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>17</v>
       </c>
@@ -12636,7 +12688,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>17</v>
       </c>
@@ -12659,7 +12711,7 @@
         <v>184.5</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>17</v>
       </c>
@@ -12682,7 +12734,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>17</v>
       </c>
@@ -12705,7 +12757,7 @@
         <v>159.5</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>17</v>
       </c>
@@ -12728,7 +12780,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>17</v>
       </c>
@@ -12751,7 +12803,7 @@
         <v>186.5</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>17</v>
       </c>
@@ -12774,7 +12826,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>17</v>
       </c>
@@ -12797,7 +12849,7 @@
         <v>159.5</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>17</v>
       </c>
@@ -12820,7 +12872,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>17</v>
       </c>
@@ -12843,7 +12895,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>17</v>
       </c>
@@ -12866,7 +12918,7 @@
         <v>285.5</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>17</v>
       </c>
@@ -12889,7 +12941,7 @@
         <v>161.5</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>17</v>
       </c>
@@ -12912,7 +12964,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>17</v>
       </c>
@@ -12935,7 +12987,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>17</v>
       </c>
@@ -12958,7 +13010,7 @@
         <v>285.5</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>17</v>
       </c>
@@ -12981,7 +13033,7 @@
         <v>161.5</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>17</v>
       </c>
@@ -13004,7 +13056,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>17</v>
       </c>
@@ -13027,7 +13079,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>17</v>
       </c>
@@ -13050,7 +13102,7 @@
         <v>285.5</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>17</v>
       </c>
@@ -13073,7 +13125,7 @@
         <v>163.5</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>17</v>
       </c>
@@ -13096,7 +13148,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>17</v>
       </c>
@@ -13119,7 +13171,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>17</v>
       </c>
@@ -13142,7 +13194,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>17</v>
       </c>
@@ -13165,7 +13217,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>17</v>
       </c>
@@ -13188,7 +13240,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>17</v>
       </c>
@@ -13211,7 +13263,7 @@
         <v>191.5</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>17</v>
       </c>
@@ -13234,7 +13286,7 @@
         <v>280.5</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>17</v>
       </c>
@@ -13257,7 +13309,7 @@
         <v>165.5</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>17</v>
       </c>
@@ -13280,7 +13332,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>17</v>
       </c>
@@ -13303,7 +13355,7 @@
         <v>191.5</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>17</v>
       </c>
@@ -13326,7 +13378,7 @@
         <v>279.5</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>17</v>
       </c>
@@ -13349,7 +13401,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>17</v>
       </c>
@@ -13372,7 +13424,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>17</v>
       </c>
@@ -13395,7 +13447,7 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>17</v>
       </c>
@@ -13418,7 +13470,7 @@
         <v>279.5</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>17</v>
       </c>
@@ -13441,7 +13493,7 @@
         <v>169.5</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>17</v>
       </c>
@@ -13464,7 +13516,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>17</v>
       </c>
@@ -13487,7 +13539,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>17</v>
       </c>
@@ -13510,7 +13562,7 @@
         <v>279.5</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>17</v>
       </c>
@@ -13533,7 +13585,7 @@
         <v>171.5</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>17</v>
       </c>
@@ -13556,7 +13608,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>17</v>
       </c>
@@ -13579,7 +13631,7 @@
         <v>195.5</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>17</v>
       </c>
@@ -13602,7 +13654,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>17</v>
       </c>
@@ -13625,7 +13677,7 @@
         <v>174.5</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>17</v>
       </c>
@@ -13648,7 +13700,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>17</v>
       </c>
@@ -13671,7 +13723,7 @@
         <v>197.5</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>17</v>
       </c>
@@ -13694,7 +13746,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>17</v>
       </c>
@@ -13717,7 +13769,7 @@
         <v>178.5</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>17</v>
       </c>
@@ -13740,7 +13792,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>17</v>
       </c>
@@ -13763,7 +13815,7 @@
         <v>200.5</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>17</v>
       </c>
@@ -13786,7 +13838,7 @@
         <v>285.5</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>17</v>
       </c>
@@ -13809,7 +13861,7 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>17</v>
       </c>
@@ -13832,7 +13884,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>17</v>
       </c>
@@ -13855,7 +13907,7 @@
         <v>210.5</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>17</v>
       </c>
@@ -13878,7 +13930,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>17</v>
       </c>
@@ -13901,7 +13953,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>17</v>
       </c>
@@ -13924,7 +13976,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>17</v>
       </c>
@@ -13947,7 +13999,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>17</v>
       </c>
@@ -13970,7 +14022,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>17</v>
       </c>
@@ -13993,7 +14045,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>17</v>
       </c>
@@ -14016,7 +14068,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>17</v>
       </c>
@@ -14039,7 +14091,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>17</v>
       </c>
@@ -14062,7 +14114,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>17</v>
       </c>
@@ -14085,7 +14137,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>17</v>
       </c>
@@ -14108,7 +14160,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>17</v>
       </c>
@@ -14131,7 +14183,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>17</v>
       </c>
@@ -14154,7 +14206,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>17</v>
       </c>
@@ -14177,7 +14229,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>17</v>
       </c>
@@ -14200,7 +14252,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>17</v>
       </c>
@@ -14223,7 +14275,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>17</v>
       </c>
@@ -14246,7 +14298,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>17</v>
       </c>
@@ -14269,7 +14321,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>17</v>
       </c>
@@ -14292,7 +14344,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>17</v>
       </c>
@@ -14315,7 +14367,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>17</v>
       </c>
@@ -14338,7 +14390,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>17</v>
       </c>
@@ -14361,7 +14413,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>17</v>
       </c>
@@ -14384,7 +14436,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>17</v>
       </c>
@@ -14407,7 +14459,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>17</v>
       </c>
@@ -14430,7 +14482,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>17</v>
       </c>
@@ -14453,7 +14505,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>17</v>
       </c>
@@ -14476,7 +14528,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>17</v>
       </c>
@@ -14499,7 +14551,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>17</v>
       </c>
@@ -14522,7 +14574,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>17</v>
       </c>
@@ -14545,7 +14597,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>17</v>
       </c>
@@ -14568,7 +14620,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>17</v>
       </c>
@@ -14591,7 +14643,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>17</v>
       </c>
@@ -14614,7 +14666,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>17</v>
       </c>
@@ -14637,7 +14689,7 @@
         <v>193.5</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>17</v>
       </c>
@@ -14660,7 +14712,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>17</v>
       </c>
@@ -14683,7 +14735,7 @@
         <v>216.5</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>17</v>
       </c>
@@ -14706,7 +14758,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>17</v>
       </c>
@@ -14729,7 +14781,7 @@
         <v>203.5</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>17</v>
       </c>
@@ -14752,7 +14804,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>17</v>
       </c>
@@ -14775,7 +14827,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>17</v>
       </c>
@@ -14798,7 +14850,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>17</v>
       </c>
@@ -14821,7 +14873,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>17</v>
       </c>
@@ -14844,7 +14896,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>17</v>
       </c>
@@ -14867,7 +14919,7 @@
         <v>236.5</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>17</v>
       </c>
@@ -14890,7 +14942,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>17</v>
       </c>
@@ -14913,7 +14965,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>17</v>
       </c>
@@ -14936,7 +14988,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>17</v>
       </c>
@@ -14959,7 +15011,7 @@
         <v>236.5</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>17</v>
       </c>
@@ -14982,7 +15034,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>17</v>
       </c>
@@ -15005,7 +15057,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>17</v>
       </c>
@@ -15028,7 +15080,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>17</v>
       </c>
@@ -15051,7 +15103,7 @@
         <v>236.5</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>17</v>
       </c>
@@ -15074,7 +15126,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>17</v>
       </c>
@@ -15097,7 +15149,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>17</v>
       </c>
@@ -15120,7 +15172,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>17</v>
       </c>
@@ -15143,7 +15195,7 @@
         <v>236.5</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>17</v>
       </c>
@@ -15166,7 +15218,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>17</v>
       </c>
@@ -15189,7 +15241,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>17</v>
       </c>
@@ -15212,7 +15264,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>17</v>
       </c>
@@ -15235,7 +15287,7 @@
         <v>236.5</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>17</v>
       </c>
@@ -15258,7 +15310,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>17</v>
       </c>
@@ -15281,7 +15333,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>17</v>
       </c>
@@ -15304,7 +15356,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>17</v>
       </c>
@@ -15327,7 +15379,7 @@
         <v>236.5</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>17</v>
       </c>
@@ -15350,7 +15402,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>17</v>
       </c>
@@ -15373,7 +15425,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>17</v>
       </c>
@@ -15396,7 +15448,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>17</v>
       </c>
@@ -15419,7 +15471,7 @@
         <v>236.5</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>17</v>
       </c>
@@ -15442,7 +15494,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>17</v>
       </c>
@@ -15465,7 +15517,7 @@
         <v>212.5</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>17</v>
       </c>
@@ -15488,7 +15540,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>17</v>
       </c>
@@ -15511,7 +15563,7 @@
         <v>236.5</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>17</v>
       </c>
@@ -15534,7 +15586,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>17</v>
       </c>
@@ -15557,7 +15609,7 @@
         <v>209.5</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>17</v>
       </c>
@@ -15580,7 +15632,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>17</v>
       </c>
@@ -15603,7 +15655,7 @@
         <v>235.5</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>17</v>
       </c>
@@ -15626,7 +15678,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>17</v>
       </c>
@@ -15649,7 +15701,7 @@
         <v>206.5</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>17</v>
       </c>
@@ -15672,7 +15724,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>17</v>
       </c>
@@ -15695,7 +15747,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>17</v>
       </c>
@@ -15718,7 +15770,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>17</v>
       </c>
@@ -15741,7 +15793,7 @@
         <v>204.5</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>17</v>
       </c>
@@ -15764,7 +15816,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>17</v>
       </c>
@@ -15787,7 +15839,7 @@
         <v>231.5</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>17</v>
       </c>
@@ -15810,7 +15862,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>17</v>
       </c>
@@ -15833,7 +15885,7 @@
         <v>204.5</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>17</v>
       </c>
@@ -15856,7 +15908,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>17</v>
       </c>
@@ -15879,7 +15931,7 @@
         <v>228.5</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>17</v>
       </c>
@@ -15902,7 +15954,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>17</v>
       </c>
@@ -15925,7 +15977,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>17</v>
       </c>
@@ -15948,7 +16000,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>17</v>
       </c>
@@ -15971,7 +16023,7 @@
         <v>228.5</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>17</v>
       </c>
@@ -15994,7 +16046,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>17</v>
       </c>
@@ -16017,7 +16069,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>17</v>
       </c>
@@ -16040,7 +16092,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>17</v>
       </c>
@@ -16063,7 +16115,7 @@
         <v>231.5</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>17</v>
       </c>
@@ -16086,7 +16138,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>17</v>
       </c>
@@ -16109,7 +16161,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>17</v>
       </c>
@@ -16132,7 +16184,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>17</v>
       </c>
@@ -16155,7 +16207,7 @@
         <v>240.5</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>17</v>
       </c>
@@ -16178,7 +16230,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>17</v>
       </c>
@@ -16201,7 +16253,7 @@
         <v>237.5</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>17</v>
       </c>
@@ -16224,7 +16276,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>17</v>
       </c>
@@ -16247,7 +16299,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>17</v>
       </c>
@@ -16270,7 +16322,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>17</v>
       </c>
@@ -16293,7 +16345,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>17</v>
       </c>
@@ -16316,7 +16368,7 @@
         <v>243.5</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>17</v>
       </c>
@@ -16339,7 +16391,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>17</v>
       </c>
@@ -16362,7 +16414,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>17</v>
       </c>
@@ -16385,7 +16437,7 @@
         <v>243.5</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>17</v>
       </c>
@@ -16408,7 +16460,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>17</v>
       </c>
@@ -16431,7 +16483,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>17</v>
       </c>
@@ -16454,7 +16506,7 @@
         <v>240.5</v>
       </c>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>17</v>
       </c>
@@ -16477,7 +16529,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>17</v>
       </c>
@@ -16500,7 +16552,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>17</v>
       </c>
@@ -16523,7 +16575,7 @@
         <v>240.5</v>
       </c>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>17</v>
       </c>
@@ -16546,7 +16598,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>17</v>
       </c>
@@ -16569,7 +16621,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="703" spans="1:7">
+    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>17</v>
       </c>
@@ -16592,7 +16644,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>17</v>
       </c>
@@ -16615,7 +16667,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>17</v>
       </c>
@@ -16638,7 +16690,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>18</v>
       </c>
@@ -16661,7 +16713,7 @@
         <v>298.5</v>
       </c>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>18</v>
       </c>
@@ -16684,7 +16736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>18</v>
       </c>
@@ -16707,7 +16759,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>18</v>
       </c>
@@ -16730,7 +16782,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>18</v>
       </c>
@@ -16753,7 +16805,7 @@
         <v>300.5</v>
       </c>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>18</v>
       </c>
@@ -16776,7 +16828,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>18</v>
       </c>
@@ -16799,7 +16851,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>18</v>
       </c>
@@ -16822,7 +16874,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>18</v>
       </c>
@@ -16845,7 +16897,7 @@
         <v>307.5</v>
       </c>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>18</v>
       </c>
@@ -16868,7 +16920,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>18</v>
       </c>
@@ -16891,7 +16943,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>18</v>
       </c>
@@ -16914,7 +16966,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>18</v>
       </c>
@@ -16937,7 +16989,7 @@
         <v>327.5</v>
       </c>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>18</v>
       </c>
@@ -16960,7 +17012,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>18</v>
       </c>
@@ -16983,7 +17035,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="721" spans="1:7">
+    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>18</v>
       </c>
@@ -17006,7 +17058,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="722" spans="1:7">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>18</v>
       </c>
@@ -17029,7 +17081,7 @@
         <v>345.5</v>
       </c>
     </row>
-    <row r="723" spans="1:7">
+    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>18</v>
       </c>
@@ -17052,7 +17104,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="724" spans="1:7">
+    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>18</v>
       </c>
@@ -17075,7 +17127,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="725" spans="1:7">
+    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>18</v>
       </c>
@@ -17098,7 +17150,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="726" spans="1:7">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>18</v>
       </c>
@@ -17121,7 +17173,7 @@
         <v>437.5</v>
       </c>
     </row>
-    <row r="727" spans="1:7">
+    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>18</v>
       </c>
@@ -17144,7 +17196,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="728" spans="1:7">
+    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>18</v>
       </c>
@@ -17167,7 +17219,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="729" spans="1:7">
+    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>18</v>
       </c>
@@ -17190,7 +17242,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="730" spans="1:7">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>18</v>
       </c>
@@ -17213,7 +17265,7 @@
         <v>477.5</v>
       </c>
     </row>
-    <row r="731" spans="1:7">
+    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>18</v>
       </c>
@@ -17236,7 +17288,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="732" spans="1:7">
+    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>18</v>
       </c>
@@ -17259,7 +17311,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="733" spans="1:7">
+    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>18</v>
       </c>
@@ -17282,7 +17334,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="734" spans="1:7">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>18</v>
       </c>
@@ -17305,7 +17357,7 @@
         <v>477.5</v>
       </c>
     </row>
-    <row r="735" spans="1:7">
+    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>18</v>
       </c>
@@ -17328,7 +17380,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="736" spans="1:7">
+    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>18</v>
       </c>
@@ -17351,7 +17403,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="737" spans="1:7">
+    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>18</v>
       </c>
@@ -17374,7 +17426,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="738" spans="1:7">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>18</v>
       </c>
@@ -17397,7 +17449,7 @@
         <v>477.5</v>
       </c>
     </row>
-    <row r="739" spans="1:7">
+    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>18</v>
       </c>
@@ -17420,7 +17472,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="740" spans="1:7">
+    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>18</v>
       </c>
@@ -17443,7 +17495,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="741" spans="1:7">
+    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>18</v>
       </c>
@@ -17466,7 +17518,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="742" spans="1:7">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>18</v>
       </c>
@@ -17489,7 +17541,7 @@
         <v>477.5</v>
       </c>
     </row>
-    <row r="743" spans="1:7">
+    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>18</v>
       </c>
@@ -17512,7 +17564,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="744" spans="1:7">
+    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>18</v>
       </c>
@@ -17535,7 +17587,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="745" spans="1:7">
+    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>18</v>
       </c>
@@ -17558,7 +17610,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="746" spans="1:7">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>18</v>
       </c>
@@ -17581,7 +17633,7 @@
         <v>487.5</v>
       </c>
     </row>
-    <row r="747" spans="1:7">
+    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>18</v>
       </c>
@@ -17604,7 +17656,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="748" spans="1:7">
+    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>18</v>
       </c>
@@ -17627,7 +17679,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="749" spans="1:7">
+    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>18</v>
       </c>
@@ -17650,7 +17702,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="750" spans="1:7">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>18</v>
       </c>
@@ -17673,7 +17725,7 @@
         <v>502.5</v>
       </c>
     </row>
-    <row r="751" spans="1:7">
+    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>18</v>
       </c>
@@ -17696,7 +17748,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="752" spans="1:7">
+    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>18</v>
       </c>
@@ -17719,7 +17771,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="753" spans="1:7">
+    <row r="753" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>18</v>
       </c>
@@ -17742,7 +17794,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="754" spans="1:7">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>18</v>
       </c>
@@ -17765,7 +17817,7 @@
         <v>522.5</v>
       </c>
     </row>
-    <row r="755" spans="1:7">
+    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>18</v>
       </c>
@@ -17788,7 +17840,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="756" spans="1:7">
+    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>18</v>
       </c>
@@ -17811,7 +17863,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="757" spans="1:7">
+    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>18</v>
       </c>
@@ -17834,7 +17886,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="758" spans="1:7">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>18</v>
       </c>
@@ -17857,7 +17909,7 @@
         <v>537.5</v>
       </c>
     </row>
-    <row r="759" spans="1:7">
+    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>18</v>
       </c>
@@ -17880,7 +17932,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="760" spans="1:7">
+    <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>18</v>
       </c>
@@ -17903,7 +17955,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="761" spans="1:7">
+    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>18</v>
       </c>
@@ -17926,7 +17978,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="762" spans="1:7">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>18</v>
       </c>
@@ -17949,7 +18001,7 @@
         <v>542.5</v>
       </c>
     </row>
-    <row r="763" spans="1:7">
+    <row r="763" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>18</v>
       </c>
@@ -17972,7 +18024,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="764" spans="1:7">
+    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>18</v>
       </c>
@@ -17995,7 +18047,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="765" spans="1:7">
+    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>18</v>
       </c>
@@ -18018,7 +18070,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="766" spans="1:7">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>18</v>
       </c>
@@ -18041,7 +18093,7 @@
         <v>542.5</v>
       </c>
     </row>
-    <row r="767" spans="1:7">
+    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>18</v>
       </c>
@@ -18064,7 +18116,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="768" spans="1:7">
+    <row r="768" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>18</v>
       </c>
@@ -18087,7 +18139,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="769" spans="1:7">
+    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>18</v>
       </c>
@@ -18110,7 +18162,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="770" spans="1:7">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>18</v>
       </c>
@@ -18133,7 +18185,7 @@
         <v>542.5</v>
       </c>
     </row>
-    <row r="771" spans="1:7">
+    <row r="771" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>18</v>
       </c>
@@ -18156,7 +18208,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="772" spans="1:7">
+    <row r="772" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>18</v>
       </c>
@@ -18179,7 +18231,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="773" spans="1:7">
+    <row r="773" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>18</v>
       </c>
@@ -18202,7 +18254,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="774" spans="1:7">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>18</v>
       </c>
@@ -18225,7 +18277,7 @@
         <v>537.5</v>
       </c>
     </row>
-    <row r="775" spans="1:7">
+    <row r="775" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>18</v>
       </c>
@@ -18248,7 +18300,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="776" spans="1:7">
+    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>18</v>
       </c>
@@ -18271,7 +18323,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="777" spans="1:7">
+    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>18</v>
       </c>
@@ -18294,7 +18346,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="778" spans="1:7">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>18</v>
       </c>
@@ -18317,7 +18369,7 @@
         <v>532.5</v>
       </c>
     </row>
-    <row r="779" spans="1:7">
+    <row r="779" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>18</v>
       </c>
@@ -18340,7 +18392,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="780" spans="1:7">
+    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>18</v>
       </c>
@@ -18363,7 +18415,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="781" spans="1:7">
+    <row r="781" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>18</v>
       </c>
@@ -18386,7 +18438,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="782" spans="1:7">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>18</v>
       </c>
@@ -18409,7 +18461,7 @@
         <v>527.5</v>
       </c>
     </row>
-    <row r="783" spans="1:7">
+    <row r="783" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>18</v>
       </c>
@@ -18432,7 +18484,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="784" spans="1:7">
+    <row r="784" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>18</v>
       </c>
@@ -18455,7 +18507,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="785" spans="1:7">
+    <row r="785" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>18</v>
       </c>
@@ -18478,7 +18530,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="786" spans="1:7">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>18</v>
       </c>
@@ -18501,7 +18553,7 @@
         <v>527.5</v>
       </c>
     </row>
-    <row r="787" spans="1:7">
+    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>18</v>
       </c>
@@ -18524,7 +18576,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="788" spans="1:7">
+    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>18</v>
       </c>
@@ -18547,7 +18599,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="789" spans="1:7">
+    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>18</v>
       </c>
@@ -18570,7 +18622,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="790" spans="1:7">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>18</v>
       </c>
@@ -18593,7 +18645,7 @@
         <v>527.5</v>
       </c>
     </row>
-    <row r="791" spans="1:7">
+    <row r="791" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>18</v>
       </c>
@@ -18616,7 +18668,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="792" spans="1:7">
+    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>18</v>
       </c>
@@ -18639,7 +18691,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="793" spans="1:7">
+    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>18</v>
       </c>
@@ -18662,7 +18714,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="794" spans="1:7">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>18</v>
       </c>
@@ -18685,7 +18737,7 @@
         <v>534.5</v>
       </c>
     </row>
-    <row r="795" spans="1:7">
+    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>18</v>
       </c>
@@ -18708,7 +18760,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="796" spans="1:7">
+    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>18</v>
       </c>
@@ -18731,7 +18783,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="797" spans="1:7">
+    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>18</v>
       </c>
@@ -18754,7 +18806,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="798" spans="1:7">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>18</v>
       </c>
@@ -18777,7 +18829,7 @@
         <v>542.5</v>
       </c>
     </row>
-    <row r="799" spans="1:7">
+    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>18</v>
       </c>
@@ -18800,7 +18852,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="800" spans="1:7">
+    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>18</v>
       </c>
@@ -18823,7 +18875,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="801" spans="1:7">
+    <row r="801" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>18</v>
       </c>
@@ -18846,7 +18898,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="802" spans="1:7">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>18</v>
       </c>
@@ -18869,7 +18921,7 @@
         <v>542.5</v>
       </c>
     </row>
-    <row r="803" spans="1:7">
+    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>18</v>
       </c>
@@ -18892,7 +18944,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="804" spans="1:7">
+    <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>18</v>
       </c>
@@ -18915,7 +18967,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="805" spans="1:7">
+    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>18</v>
       </c>
@@ -18938,7 +18990,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="806" spans="1:7">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>18</v>
       </c>
@@ -18961,7 +19013,7 @@
         <v>539.5</v>
       </c>
     </row>
-    <row r="807" spans="1:7">
+    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>18</v>
       </c>
@@ -18984,7 +19036,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="808" spans="1:7">
+    <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>18</v>
       </c>
@@ -19007,7 +19059,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="809" spans="1:7">
+    <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>18</v>
       </c>
@@ -19030,7 +19082,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="810" spans="1:7">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>18</v>
       </c>
@@ -19053,7 +19105,7 @@
         <v>521.5</v>
       </c>
     </row>
-    <row r="811" spans="1:7">
+    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>18</v>
       </c>
@@ -19076,7 +19128,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="812" spans="1:7">
+    <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>18</v>
       </c>
@@ -19099,7 +19151,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="813" spans="1:7">
+    <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>18</v>
       </c>
@@ -19122,7 +19174,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="814" spans="1:7">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>18</v>
       </c>
@@ -19145,7 +19197,7 @@
         <v>512.5</v>
       </c>
     </row>
-    <row r="815" spans="1:7">
+    <row r="815" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>18</v>
       </c>
@@ -19168,7 +19220,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="816" spans="1:7">
+    <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>18</v>
       </c>
@@ -19191,7 +19243,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="817" spans="1:7">
+    <row r="817" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>18</v>
       </c>
@@ -19214,7 +19266,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="818" spans="1:7">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>18</v>
       </c>
@@ -19237,7 +19289,7 @@
         <v>512.5</v>
       </c>
     </row>
-    <row r="819" spans="1:7">
+    <row r="819" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>18</v>
       </c>
@@ -19260,7 +19312,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="820" spans="1:7">
+    <row r="820" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>18</v>
       </c>
@@ -19283,7 +19335,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="821" spans="1:7">
+    <row r="821" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>18</v>
       </c>
@@ -19306,7 +19358,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="822" spans="1:7">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>18</v>
       </c>
@@ -19329,7 +19381,7 @@
         <v>512.5</v>
       </c>
     </row>
-    <row r="823" spans="1:7">
+    <row r="823" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>18</v>
       </c>
@@ -19352,7 +19404,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="824" spans="1:7">
+    <row r="824" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>18</v>
       </c>
@@ -19375,7 +19427,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="825" spans="1:7">
+    <row r="825" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>18</v>
       </c>
@@ -19398,7 +19450,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="826" spans="1:7">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>18</v>
       </c>
@@ -19421,7 +19473,7 @@
         <v>512.5</v>
       </c>
     </row>
-    <row r="827" spans="1:7">
+    <row r="827" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>18</v>
       </c>
@@ -19444,7 +19496,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="828" spans="1:7">
+    <row r="828" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>18</v>
       </c>
@@ -19467,7 +19519,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="829" spans="1:7">
+    <row r="829" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>18</v>
       </c>
@@ -19490,7 +19542,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="830" spans="1:7">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>18</v>
       </c>
@@ -19513,7 +19565,7 @@
         <v>522.5</v>
       </c>
     </row>
-    <row r="831" spans="1:7">
+    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>18</v>
       </c>
@@ -19536,7 +19588,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="832" spans="1:7">
+    <row r="832" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>18</v>
       </c>
@@ -19559,7 +19611,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="833" spans="1:7">
+    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>18</v>
       </c>
@@ -19582,7 +19634,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="834" spans="1:7">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>18</v>
       </c>
@@ -19605,7 +19657,7 @@
         <v>522.5</v>
       </c>
     </row>
-    <row r="835" spans="1:7">
+    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>18</v>
       </c>
@@ -19628,7 +19680,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="836" spans="1:7">
+    <row r="836" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>18</v>
       </c>
@@ -19651,7 +19703,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="837" spans="1:7">
+    <row r="837" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>18</v>
       </c>
@@ -19674,7 +19726,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="838" spans="1:7">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>18</v>
       </c>
@@ -19697,7 +19749,7 @@
         <v>527.5</v>
       </c>
     </row>
-    <row r="839" spans="1:7">
+    <row r="839" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>18</v>
       </c>
@@ -19720,7 +19772,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="840" spans="1:7">
+    <row r="840" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>18</v>
       </c>
@@ -19743,7 +19795,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="841" spans="1:7">
+    <row r="841" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>18</v>
       </c>
@@ -19766,7 +19818,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="842" spans="1:7">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>18</v>
       </c>
@@ -19789,7 +19841,7 @@
         <v>527.5</v>
       </c>
     </row>
-    <row r="843" spans="1:7">
+    <row r="843" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>18</v>
       </c>
@@ -19812,7 +19864,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="844" spans="1:7">
+    <row r="844" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>18</v>
       </c>
@@ -19835,7 +19887,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="845" spans="1:7">
+    <row r="845" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>18</v>
       </c>
@@ -19858,7 +19910,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="846" spans="1:7">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>18</v>
       </c>
@@ -19881,7 +19933,7 @@
         <v>525.5</v>
       </c>
     </row>
-    <row r="847" spans="1:7">
+    <row r="847" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>18</v>
       </c>
@@ -19904,7 +19956,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="848" spans="1:7">
+    <row r="848" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>18</v>
       </c>
@@ -19927,7 +19979,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="849" spans="1:7">
+    <row r="849" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>18</v>
       </c>
@@ -19950,7 +20002,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="850" spans="1:7">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>18</v>
       </c>
@@ -19973,7 +20025,7 @@
         <v>525.5</v>
       </c>
     </row>
-    <row r="851" spans="1:7">
+    <row r="851" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>18</v>
       </c>
@@ -19996,7 +20048,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="852" spans="1:7">
+    <row r="852" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>18</v>
       </c>
@@ -20019,7 +20071,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="853" spans="1:7">
+    <row r="853" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>18</v>
       </c>
@@ -20042,7 +20094,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="854" spans="1:7">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>18</v>
       </c>
@@ -20065,7 +20117,7 @@
         <v>525.5</v>
       </c>
     </row>
-    <row r="855" spans="1:7">
+    <row r="855" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>18</v>
       </c>
@@ -20088,7 +20140,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="856" spans="1:7">
+    <row r="856" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>18</v>
       </c>
@@ -20111,7 +20163,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="857" spans="1:7">
+    <row r="857" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>18</v>
       </c>
@@ -20134,7 +20186,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="858" spans="1:7">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>18</v>
       </c>
@@ -20157,7 +20209,7 @@
         <v>525.5</v>
       </c>
     </row>
-    <row r="859" spans="1:7">
+    <row r="859" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>18</v>
       </c>
@@ -20180,7 +20232,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="860" spans="1:7">
+    <row r="860" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>18</v>
       </c>
@@ -20203,7 +20255,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="861" spans="1:7">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>18</v>
       </c>
@@ -20226,7 +20278,7 @@
         <v>536.5</v>
       </c>
     </row>
-    <row r="862" spans="1:7">
+    <row r="862" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>18</v>
       </c>
@@ -20249,7 +20301,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="863" spans="1:7">
+    <row r="863" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>18</v>
       </c>
@@ -20272,7 +20324,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="864" spans="1:7">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>18</v>
       </c>
@@ -20295,7 +20347,7 @@
         <v>542.5</v>
       </c>
     </row>
-    <row r="865" spans="1:7">
+    <row r="865" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>18</v>
       </c>
@@ -20318,7 +20370,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="866" spans="1:7">
+    <row r="866" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>18</v>
       </c>
@@ -20341,7 +20393,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="867" spans="1:7">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>18</v>
       </c>
@@ -20364,7 +20416,7 @@
         <v>542.5</v>
       </c>
     </row>
-    <row r="868" spans="1:7">
+    <row r="868" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>18</v>
       </c>
@@ -20387,7 +20439,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="869" spans="1:7">
+    <row r="869" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>18</v>
       </c>
@@ -20410,7 +20462,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="870" spans="1:7">
+    <row r="870" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>18</v>
       </c>
@@ -20433,7 +20485,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="871" spans="1:7">
+    <row r="871" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>18</v>
       </c>
@@ -20456,7 +20508,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="872" spans="1:7">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>18</v>
       </c>
@@ -20479,7 +20531,7 @@
         <v>544.5</v>
       </c>
     </row>
-    <row r="873" spans="1:7">
+    <row r="873" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>18</v>
       </c>
@@ -20502,7 +20554,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="874" spans="1:7">
+    <row r="874" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>18</v>
       </c>
@@ -20525,7 +20577,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="875" spans="1:7">
+    <row r="875" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>18</v>
       </c>
@@ -20549,6 +20601,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D875" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Durum wheat"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>